--- a/_output/NEW_1_RiskTakers_Male_vs_Female - Chi-Test__b1(1 ).csv__b1(2 ).csv_ (Edit).xlsx
+++ b/_output/NEW_1_RiskTakers_Male_vs_Female - Chi-Test__b1(1 ).csv__b1(2 ).csv_ (Edit).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Candy\Documents\GitHub\OOTO Miner Python v2\_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E79F31C-8076-409A-9D9D-84C215C453E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B38EDF-3E17-4946-BC22-66DEB79DCA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_RiskTakers_Male_vs_Female - C" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,12 +655,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="41">
@@ -1511,6 +1505,10 @@
     <xf numFmtId="10" fontId="18" fillId="37" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,10 +1524,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1907,8 +1901,8 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,21 +1940,21 @@
         <v>2</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="28"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="54"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2123,10 +2117,10 @@
       <c r="I6" s="24">
         <v>602</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="51">
         <v>0.66830000000000001</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="53">
         <v>0.33169999999999999</v>
       </c>
       <c r="L6" s="4">
@@ -2148,7 +2142,7 @@
       <c r="R6" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="59" t="s">
         <v>138</v>
       </c>
       <c r="T6" s="2"/>
@@ -2181,10 +2175,10 @@
       <c r="I7" s="24">
         <v>602</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="51">
         <v>0.71109999999999995</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="53">
         <v>0.28889999999999999</v>
       </c>
       <c r="L7" s="4">
@@ -2206,7 +2200,7 @@
       <c r="R7" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="55"/>
+      <c r="S7" s="59"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2237,10 +2231,10 @@
       <c r="I8" s="24">
         <v>597</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="51">
         <v>0.88070000000000004</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="53">
         <v>0.1193</v>
       </c>
       <c r="L8" s="4">
@@ -2262,7 +2256,7 @@
       <c r="R8" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S8" s="55"/>
+      <c r="S8" s="59"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2293,10 +2287,10 @@
       <c r="I9" s="24">
         <v>599</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="51">
         <v>0.63129999999999997</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="53">
         <v>0.36870000000000003</v>
       </c>
       <c r="L9" s="4">
@@ -2318,7 +2312,7 @@
       <c r="R9" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S9" s="55"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -2349,10 +2343,10 @@
       <c r="I10" s="24">
         <v>591</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="51">
         <v>0.88549999999999995</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="53">
         <v>0.1145</v>
       </c>
       <c r="L10" s="4">
@@ -2374,7 +2368,7 @@
       <c r="R10" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S10" s="55"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2405,10 +2399,10 @@
       <c r="I11" s="24">
         <v>602</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="51">
         <v>0.80400000000000005</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="53">
         <v>0.19600000000000001</v>
       </c>
       <c r="L11" s="4">
@@ -2427,8 +2421,8 @@
       <c r="Q11" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="R11" s="34" t="s">
-        <v>136</v>
+      <c r="R11" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="S11" s="40" t="s">
         <v>140</v>
@@ -2463,7 +2457,7 @@
       <c r="I12" s="24">
         <v>602</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="51">
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="K12" s="20">
@@ -2475,7 +2469,7 @@
       <c r="M12" s="49">
         <v>3.32E-2</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="53">
         <v>0.96679999999999999</v>
       </c>
       <c r="O12" s="4">
@@ -2521,10 +2515,10 @@
       <c r="I13" s="24">
         <v>600</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="51">
         <v>0.61009999999999998</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="53">
         <v>0.38990000000000002</v>
       </c>
       <c r="L13" s="4">
@@ -2546,7 +2540,7 @@
       <c r="R13" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S13" s="55" t="s">
+      <c r="S13" s="59" t="s">
         <v>138</v>
       </c>
       <c r="T13" s="2"/>
@@ -2579,10 +2573,10 @@
       <c r="I14" s="24">
         <v>597</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="51">
         <v>0.74490000000000001</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="53">
         <v>0.25509999999999999</v>
       </c>
       <c r="L14" s="4">
@@ -2604,7 +2598,7 @@
       <c r="R14" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S14" s="55"/>
+      <c r="S14" s="59"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2635,10 +2629,10 @@
       <c r="I15" s="24">
         <v>600</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="51">
         <v>0.60350000000000004</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="53">
         <v>0.39650000000000002</v>
       </c>
       <c r="L15" s="4">
@@ -2660,7 +2654,7 @@
       <c r="R15" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="S15" s="55"/>
+      <c r="S15" s="59"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2691,7 +2685,7 @@
       <c r="I16" s="24">
         <v>598</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="51">
         <v>0.5242</v>
       </c>
       <c r="K16" s="20">
@@ -2703,7 +2697,7 @@
       <c r="M16" s="49">
         <v>0.43309999999999998</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="53">
         <v>0.56689999999999996</v>
       </c>
       <c r="O16" s="4">
@@ -2749,10 +2743,10 @@
       <c r="I17" s="46">
         <v>596</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="52">
         <v>0.89590000000000003</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="54">
         <v>0.1041</v>
       </c>
       <c r="L17" s="7">
